--- a/data/Beispiel_7.xlsx
+++ b/data/Beispiel_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{219F990E-9793-42E0-9C60-F1EC82CDB2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{219F990E-9793-42E0-9C60-F1EC82CDB2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E72C2FBC-46CB-4EA7-B525-E36164B34F1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Eingaben für die Kurzschlussfestigkeit bei Leiterseilen</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>[2] IEC 60071-2, Kapitel 4.2.2</t>
+  </si>
+  <si>
+    <t>l_h_f Länge einer Klemme u. Formfaktor</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
     <numFmt numFmtId="171" formatCode="#,##0\ &quot;N/m&quot;"/>
     <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;Hz&quot;"/>
     <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -638,7 +641,7 @@
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2"/>
@@ -651,7 +654,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,6 +771,10 @@
     <xf numFmtId="4" fontId="11" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,20 +783,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,11 +796,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1038,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1071,19 +1077,19 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1151,10 +1157,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1189,10 +1195,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1217,10 +1223,10 @@
       <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="45"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1237,117 +1243,122 @@
       <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
+      <c r="A23" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="25">
-        <v>2</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="43"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="45"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B27" s="34">
         <v>0.35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B28" s="34">
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B29" s="35">
         <v>100000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="43"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="45"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="25"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="25"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="25"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="25"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="25"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="25"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="25"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="25"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="25"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="25"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="25"/>
-    </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="27"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="B40" s="27"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1413,14 +1424,10 @@
       <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="9"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1489,14 +1496,21 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <dataValidations count="10">
@@ -1521,7 +1535,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B29" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"100000, 150000, 1300000, 400000, 2000000, 600000, 3000000"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{00000000-0002-0000-0000-000008000000}">
@@ -1570,10 +1584,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1591,7 +1605,7 @@
       <c r="A4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="12" t="s">
         <v>49</v>
       </c>
@@ -1606,66 +1620,66 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1673,119 +1687,119 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1794,6 +1808,15 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A27:B27"/>
@@ -1810,15 +1833,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.181102362204725" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141742"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
